--- a/biology/Zoologie/Barasingha/Barasingha.xlsx
+++ b/biology/Zoologie/Barasingha/Barasingha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cervus duvaucelii
 Le barasing(h)a ou cerf de Duvaucel ou cerf des marais (Rucervus duvaucelii ou Cervus duvaucelii) est un cervidé de l'Inde et du Népal.
@@ -513,7 +525,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les caractéristiques morphologiques du Barasingha sont les suivantes :
 longueur du corps :
@@ -548,7 +562,9 @@
           <t>Physiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Barasingha présente les caractéristiques suivantes :
 maturité sexuelle :
@@ -585,7 +601,9 @@
           <t>Régime alimentaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet animal est herbivore, comme tous les cervidés.
 </t>
@@ -616,7 +634,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cerf vulnérable, qui a l'habitude de se tenir en harde nombreuse. La harde est conduite par une femelle expérimentée et se compose de biches et de faons d'âges différents.
 Les mâles vivent en solitaire toute l'année jusqu'à la période de reproduction où ils rejoignent les hardes de femelles. Ils se livrent alors à de terribles combats pour la possession d'une harde.
@@ -650,7 +670,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le barasingha se rencontre en Inde et au Népal.
 </t>
@@ -681,10 +703,12 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cervus duvaucelii duvaucelii
-Régions humides de l'Inde (Uttar Pradesh) et du Népal (Kanchanpur) : de grandes populations de cette sous-espèce (plus de 1 000 individus sont présentes dans le Parc national royal de Shukla Phanta[1].
+Régions humides de l'Inde (Uttar Pradesh) et du Népal (Kanchanpur) : de grandes populations de cette sous-espèce (plus de 1 000 individus sont présentes dans le Parc national royal de Shukla Phanta.
 Cervus duvaucelii branderi
 Régions plus sèches et herbeuses du Madhya Pradesh en Inde, en particulier dans les parcs nationaux de Kanha et Indravati.
 Cervus duvaucelii ranjitsinhi
